--- a/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>241,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>-42,67%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 12,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 4,17</t>
+          <t>-5,49; 1,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,18; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,93; 1154,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,81; 64,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,09; -2,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,78</t>
+          <t>-2,64; 3,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,07; 171,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,03; -18,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,37; 305,27</t>
+          <t>-49,72; 149,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>189,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,71%</t>
+          <t>33,28%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,95</t>
+          <t>-1,71; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 829,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,94; 49,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-98,77; 213,35</t>
+          <t>-47,72; 227,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-42,29%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>62,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>170,89%</t>
+          <t>55,68%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,11</t>
+          <t>-0,23; 2,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 9,15</t>
+          <t>-1,04; 6,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,69</t>
+          <t>-0,59; 3,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,43; 66,32</t>
+          <t>-30,95; 419,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 440,72</t>
+          <t>-16,0; 373,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,16; 1510,22</t>
+          <t>-26,18; 245,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>-32,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,31</t>
+          <t>-3,82; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,49</t>
+          <t>0,36; 7,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,79</t>
+          <t>-1,25; 2,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 179,95</t>
+          <t>-62,85; 13,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,07; 21,46</t>
+          <t>2,83; 150,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 185,5</t>
+          <t>-62,15; 313,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>58,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>162,47%</t>
+          <t>-36,83%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,19</t>
+          <t>-0,35; 3,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,07</t>
+          <t>-11,55; 2,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,07</t>
+          <t>-3,42; 0,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 206,58</t>
+          <t>-20,49; 247,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 37,21</t>
+          <t>-78,89; 31,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 613,7</t>
+          <t>-69,86; 38,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>53,5%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>-50,97%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,52</t>
+          <t>-0,92; 2,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,81</t>
+          <t>0,01; 8,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,2</t>
+          <t>-5,03; -0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 247,87</t>
+          <t>-35,87; 180,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 59,93</t>
+          <t>-1,24; 265,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 266,13</t>
+          <t>-79,18; 3,54</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,19%</t>
+          <t>-3,58%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,58</t>
+          <t>0,01; 1,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,01</t>
+          <t>-1,73; 3,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,07</t>
+          <t>-1,04; 0,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 507,13</t>
+          <t>-0,36; 78,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,43; 138,64</t>
+          <t>-23,06; 59,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 4,58</t>
+          <t>-31,22; 33,93</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-23,23%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-22,05%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>64,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 1,1</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 1,14</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 3,22</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-61,86; 45,51</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-59,51; 15,65</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 197,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-45,38%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>48,95%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; -0,03</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 5,62</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 1,6</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-74,56; 4,66</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 122,27</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-42,16; 93,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,93%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 0,58</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 0,93</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-33,7; 22,28</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 28,06</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 50,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>241,92%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,84</t>
+          <t>-0,73; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 12,21</t>
+          <t>-3,26; 11,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,18; —</t>
+          <t>-80,35; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 1154,22</t>
+          <t>-54,52; 949,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,78%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,19</t>
+          <t>-1,87; 2,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,09; -2,05</t>
+          <t>-16,69; -1,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 171,28</t>
+          <t>-72,52; 349,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,03; -18,26</t>
+          <t>-84,26; -19,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>189,52%</t>
+          <t>168,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,45</t>
+          <t>0,26; 3,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,55</t>
+          <t>-5,35; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 829,35</t>
+          <t>-17,44; 757,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 49,61</t>
+          <t>-52,1; 56,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,21</t>
+          <t>-0,41; 2,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 6,39</t>
+          <t>-1,09; 6,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 419,78</t>
+          <t>-30,09; 316,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 373,61</t>
+          <t>-15,57; 447,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-32,48%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,35</t>
+          <t>-1,19; 3,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,51</t>
+          <t>-0,31; 7,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 13,43</t>
+          <t>-27,71; 124,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 150,07</t>
+          <t>-4,32; 156,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58,02%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,77</t>
+          <t>-0,82; 3,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 2,21</t>
+          <t>-10,19; 2,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 247,9</t>
+          <t>-27,19; 178,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 31,58</t>
+          <t>-83,54; 31,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,17</t>
+          <t>-1,45; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,19</t>
+          <t>-0,43; 8,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 180,15</t>
+          <t>-38,26; 150,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 265,03</t>
+          <t>-6,21; 253,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,31</t>
+          <t>0,3; 1,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,08</t>
+          <t>-1,91; 3,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 78,45</t>
+          <t>11,2; 104,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 59,71</t>
+          <t>-24,62; 56,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_CAT-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-42,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>80,03%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>106,12%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-42,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,35; 11,36</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 1,04</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,73; 1,8</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 11,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 1,04</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-43,8; 569,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-83,81; 64,81</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-80,35; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-54,52; 949,9</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-83,81; 64,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-7,42</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,14</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-50,21%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,09%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-58,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,14%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-14,27; -1,09</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,87; 2,67</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; -1,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 3,33</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-73,28; -6,77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-49,72; 149,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-72,52; 349,85</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-84,26; -19,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-49,72; 149,57</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,79</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-15,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33,28%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>168,64%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,39%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>33,28%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,03; 2,49</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,86</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,26; 3,76</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 2,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 3,86</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-50,09; 50,11</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-47,72; 227,93</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-17,44; 757,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-52,1; 56,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-47,72; 227,93</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>69,13%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>62,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>55,68%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-3,39; 3,03</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 3,56</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,41; 2,32</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 6,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 3,56</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-39,4; 68,35</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-26,18; 245,47</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-30,09; 316,04</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; 447,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-26,18; 245,47</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>58,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>19,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>54,35%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,09; 7,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 2,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,19; 3,05</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 7,59</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 2,14</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,88; 162,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-62,15; 313,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-27,71; 124,69</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 156,7</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-62,15; 313,18</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,21</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-36,83%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>43,06%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-37,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-36,83%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-2,23; 6,07</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 0,8</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-0,82; 3,37</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 2,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 0,8</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-22,77; 93,89</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-69,86; 38,61</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-27,19; 178,27</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-83,54; 31,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-69,86; 38,61</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>86,98%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-50,97%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>22,55%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>82,54%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-50,97%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,1; 8,32</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; -0,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-1,45; 2,73</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 8,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; -0,25</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-4,43; 256,55</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-79,18; 3,54</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-38,26; 150,76</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 253,53</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-79,18; 3,54</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>47,99%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>8,53%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-3,58%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-1,37; 2,37</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 0,82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0,3; 1,78</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 3,13</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 0,82</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-14,43; 34,54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-31,22; 33,93</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>11,2; 104,57</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-24,62; 56,87</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-31,22; 33,93</t>
         </is>
       </c>
     </row>
